--- a/data/duck_data.xlsx
+++ b/data/duck_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-deployments\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\DS_Projects\portfolio-plotly\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397363FA-4186-4AE6-9E13-4DD028A2F0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9CF7C4-C292-45B2-9C6F-506AED5C7603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF9DEEC2-186D-4161-AB80-57C24753F6AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="554">
   <si>
     <t>Duck</t>
   </si>
@@ -801,9 +801,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>owl</t>
-  </si>
-  <si>
     <t>sheep</t>
   </si>
   <si>
@@ -1362,9 +1359,6 @@
     <t>white unicorn</t>
   </si>
   <si>
-    <t>yellow &amp; off yellwo mini</t>
-  </si>
-  <si>
     <t>Smithsonian Natural History Museum</t>
   </si>
   <si>
@@ -1432,6 +1426,306 @@
   </si>
   <si>
     <t>Disney Carribean Beach Resort</t>
+  </si>
+  <si>
+    <t>Brown Owl</t>
+  </si>
+  <si>
+    <t>Hoot Hoot</t>
+  </si>
+  <si>
+    <t>Green painty</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>BI Days mini yellow 2</t>
+  </si>
+  <si>
+    <t>Giveaway</t>
+  </si>
+  <si>
+    <t>Big Quack</t>
+  </si>
+  <si>
+    <t>RadioQuacktive</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Lenore Flower</t>
+  </si>
+  <si>
+    <t>Lucky Strike</t>
+  </si>
+  <si>
+    <t>BI Days DC</t>
+  </si>
+  <si>
+    <t>Arlington</t>
+  </si>
+  <si>
+    <t>JCCA</t>
+  </si>
+  <si>
+    <t>pink owl</t>
+  </si>
+  <si>
+    <t>Stolas</t>
+  </si>
+  <si>
+    <t>Jigsaw</t>
+  </si>
+  <si>
+    <t>Mickey Mallard</t>
+  </si>
+  <si>
+    <t>Quack Dealer</t>
+  </si>
+  <si>
+    <t>Cowboy Bebop</t>
+  </si>
+  <si>
+    <t>Pink Frankenstein</t>
+  </si>
+  <si>
+    <t>Target Bat</t>
+  </si>
+  <si>
+    <t>Larry BWS</t>
+  </si>
+  <si>
+    <t>Skeleton Duck</t>
+  </si>
+  <si>
+    <t>Mummy</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Einstein 2</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Local Fair</t>
+  </si>
+  <si>
+    <t>Party City</t>
+  </si>
+  <si>
+    <t>Duck World</t>
+  </si>
+  <si>
+    <t>High Roller Las Vegas</t>
+  </si>
+  <si>
+    <t>Purple Reign</t>
+  </si>
+  <si>
+    <t>Duckinator</t>
+  </si>
+  <si>
+    <t>Uncle Alex</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
+  </si>
+  <si>
+    <t>Spain boy Mili</t>
+  </si>
+  <si>
+    <t>Spain boy Mikaela</t>
+  </si>
+  <si>
+    <t>Eden Praire</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Madrid Duck Store</t>
+  </si>
+  <si>
+    <t>Mili</t>
+  </si>
+  <si>
+    <t>Mikaela</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Pepito</t>
+  </si>
+  <si>
+    <t>MacQuack</t>
+  </si>
+  <si>
+    <t>To Quack or not to quack…..</t>
+  </si>
+  <si>
+    <t>FrankenDuck</t>
+  </si>
+  <si>
+    <t>Quackula</t>
+  </si>
+  <si>
+    <t>Pondfitter</t>
+  </si>
+  <si>
+    <t>Quack Skellington</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Frasier</t>
+  </si>
+  <si>
+    <t>Bucky</t>
+  </si>
+  <si>
+    <t>Excalibill</t>
+  </si>
+  <si>
+    <t>yellow &amp; off yellow mini</t>
+  </si>
+  <si>
+    <t>Rexy</t>
+  </si>
+  <si>
+    <t>Conquacktor</t>
+  </si>
+  <si>
+    <t>FlavorFowl</t>
+  </si>
+  <si>
+    <t>Portland Bill</t>
+  </si>
+  <si>
+    <t>Scurvy</t>
+  </si>
+  <si>
+    <t>Founding Fowler</t>
+  </si>
+  <si>
+    <t>Silence DoQuack</t>
+  </si>
+  <si>
+    <t>Billzo</t>
+  </si>
+  <si>
+    <t>Duck Tracks</t>
+  </si>
+  <si>
+    <t>RapiDuck</t>
+  </si>
+  <si>
+    <t>SWTHZ</t>
+  </si>
+  <si>
+    <t>Blue alien</t>
+  </si>
+  <si>
+    <t>Green alien</t>
+  </si>
+  <si>
+    <t>Red Alien</t>
+  </si>
+  <si>
+    <t>Stitch</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Blue yellow spots</t>
+  </si>
+  <si>
+    <t>Orange blue console</t>
+  </si>
+  <si>
+    <t>Police w flag</t>
+  </si>
+  <si>
+    <t>Military small blue w yellow button</t>
+  </si>
+  <si>
+    <t>Sedona indian</t>
+  </si>
+  <si>
+    <t>Sedona cowboy</t>
+  </si>
+  <si>
+    <t>Cupcake</t>
+  </si>
+  <si>
+    <t>Pink Frankenstein 2</t>
+  </si>
+  <si>
+    <t>Blue surfboard</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Purple w black neck</t>
+  </si>
+  <si>
+    <t>Joanna</t>
+  </si>
+  <si>
+    <t>Sedona</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Amsterdam Duck Store</t>
+  </si>
+  <si>
+    <t>Penguin scarf</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>wreath</t>
+  </si>
+  <si>
+    <t>sparkly with top hat</t>
+  </si>
+  <si>
+    <t>yeti</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>rosie riveter</t>
+  </si>
+  <si>
+    <t>Aviator goggles</t>
+  </si>
+  <si>
+    <t>LA</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1514,6 +1808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1573,10 +1868,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R127" totalsRowShown="0">
-  <autoFilter ref="A1:R127" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R126">
-    <sortCondition ref="I1:I126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}" name="Table1" displayName="Table1" ref="A1:R170" totalsRowShown="0">
+  <autoFilter ref="A1:R170" xr:uid="{55715085-9AFB-4516-817F-DC3F49C2B133}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R143">
+    <sortCondition ref="I1:I143"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{526AE2CE-1A5F-4A7A-B147-A0F5F581786F}" name="Duck"/>
@@ -1920,17 +2215,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A39" sqref="A39"/>
-      <selection pane="topRight" activeCell="R125" sqref="R125"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H158" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T169" sqref="T169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2072,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
         <v>115</v>
@@ -2185,7 +2481,7 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5" t="s">
         <v>125</v>
@@ -2242,7 +2538,7 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -2299,7 +2595,7 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D7" t="s">
         <v>109</v>
@@ -2355,7 +2651,7 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
         <v>109</v>
@@ -2469,7 +2765,7 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
         <v>122</v>
@@ -2522,7 +2818,7 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
         <v>127</v>
@@ -2579,7 +2875,7 @@
         <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
@@ -2636,7 +2932,7 @@
         <v>226</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
         <v>129</v>
@@ -2692,7 +2988,7 @@
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
         <v>128</v>
@@ -2701,7 +2997,7 @@
         <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G14" t="s">
         <v>60</v>
@@ -2749,7 +3045,7 @@
         <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
         <v>120</v>
@@ -2758,7 +3054,7 @@
         <v>166</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G15" t="s">
         <v>149</v>
@@ -2919,7 +3215,7 @@
         <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -2976,7 +3272,7 @@
         <v>209</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -3202,7 +3498,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D23" t="s">
         <v>113</v>
@@ -3211,7 +3507,7 @@
         <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -3259,7 +3555,7 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
         <v>113</v>
@@ -3268,7 +3564,7 @@
         <v>148</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G24" t="s">
         <v>42</v>
@@ -3316,7 +3612,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D25" t="s">
         <v>113</v>
@@ -3325,7 +3621,7 @@
         <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
@@ -3372,7 +3668,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D26" t="s">
         <v>130</v>
@@ -3381,7 +3677,7 @@
         <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G26" t="s">
         <v>42</v>
@@ -3429,7 +3725,7 @@
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D27" t="s">
         <v>113</v>
@@ -3438,7 +3734,7 @@
         <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G27" t="s">
         <v>42</v>
@@ -3542,7 +3838,7 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
@@ -3551,7 +3847,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G29" t="s">
         <v>147</v>
@@ -3656,7 +3952,7 @@
         <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D31" t="s">
         <v>118</v>
@@ -3712,7 +4008,7 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D32" t="s">
         <v>124</v>
@@ -3769,7 +4065,7 @@
         <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D33" t="s">
         <v>124</v>
@@ -3882,7 +4178,7 @@
         <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
         <v>116</v>
@@ -4224,7 +4520,7 @@
         <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>230</v>
@@ -4280,7 +4576,7 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>230</v>
@@ -4336,7 +4632,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>230</v>
@@ -4392,7 +4688,7 @@
         <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>230</v>
@@ -4445,16 +4741,16 @@
         <v>241</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F45" t="s">
         <v>235</v>
@@ -4475,7 +4771,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
         <v>50</v>
@@ -4501,16 +4797,16 @@
         <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F46" t="s">
         <v>235</v>
@@ -4531,7 +4827,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M46" t="s">
         <v>50</v>
@@ -4557,16 +4853,16 @@
         <v>243</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
         <v>235</v>
@@ -4616,13 +4912,13 @@
         <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
         <v>235</v>
@@ -4666,19 +4962,19 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F49" t="s">
         <v>235</v>
@@ -4722,19 +5018,19 @@
     </row>
     <row r="50" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
         <v>235</v>
@@ -4755,7 +5051,7 @@
         <v>-72.386257999999998</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M50" t="s">
         <v>54</v>
@@ -4778,19 +5074,19 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
         <v>235</v>
@@ -4834,22 +5130,22 @@
     </row>
     <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
+        <v>263</v>
+      </c>
+      <c r="F52" t="s">
         <v>264</v>
-      </c>
-      <c r="F52" t="s">
-        <v>265</v>
       </c>
       <c r="G52" t="s">
         <v>146</v>
@@ -4867,7 +5163,7 @@
         <v>-97.761235999999997</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s">
         <v>51</v>
@@ -4890,19 +5186,19 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>245</v>
-      </c>
-      <c r="B53">
-        <v>22</v>
+        <v>468</v>
+      </c>
+      <c r="B53" t="s">
+        <v>469</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F53" t="s">
         <v>162</v>
@@ -4946,19 +5242,19 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F54" t="s">
         <v>162</v>
@@ -5002,19 +5298,19 @@
     </row>
     <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" t="s">
         <v>162</v>
@@ -5035,7 +5331,7 @@
         <v>-71.034631000000005</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M55" t="s">
         <v>50</v>
@@ -5058,19 +5354,19 @@
     </row>
     <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F56" t="s">
         <v>162</v>
@@ -5091,7 +5387,7 @@
         <v>-71.034631000000005</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s">
         <v>50</v>
@@ -5114,22 +5410,22 @@
     </row>
     <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G57" t="s">
         <v>146</v>
@@ -5147,7 +5443,7 @@
         <v>-75.131957</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M57" t="s">
         <v>50</v>
@@ -5170,22 +5466,22 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
         <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F58" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G58" t="s">
         <v>146</v>
@@ -5203,7 +5499,7 @@
         <v>-75.131495999999999</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s">
         <v>50</v>
@@ -5226,7 +5522,7 @@
     </row>
     <row r="59" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -5235,13 +5531,13 @@
         <v>131</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G59" t="s">
         <v>146</v>
@@ -5259,7 +5555,7 @@
         <v>-75.131495999999999</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M59" t="s">
         <v>50</v>
@@ -5282,19 +5578,19 @@
     </row>
     <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>275</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
+        <v>274</v>
+      </c>
+      <c r="B60" t="s">
+        <v>470</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E60" t="s">
         <v>277</v>
-      </c>
-      <c r="E60" t="s">
-        <v>278</v>
       </c>
       <c r="F60" t="s">
         <v>162</v>
@@ -5315,7 +5611,7 @@
         <v>-71.047290735065801</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s">
         <v>54</v>
@@ -5338,16 +5634,16 @@
     </row>
     <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
         <v>177</v>
@@ -5371,7 +5667,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s">
         <v>50</v>
@@ -5394,16 +5690,16 @@
     </row>
     <row r="62" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E62" t="s">
         <v>177</v>
@@ -5427,7 +5723,7 @@
         <v>-71.213526000000002</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M62" t="s">
         <v>50</v>
@@ -5450,19 +5746,19 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>374</v>
+      </c>
+      <c r="C63" t="s">
+        <v>419</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B63" t="s">
-        <v>375</v>
-      </c>
-      <c r="C63" t="s">
-        <v>420</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F63" t="s">
         <v>162</v>
@@ -5506,19 +5802,19 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F64" t="s">
         <v>162</v>
@@ -5562,19 +5858,19 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F65" t="s">
         <v>162</v>
@@ -5618,16 +5914,16 @@
     </row>
     <row r="66" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B66">
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
         <v>177</v>
@@ -5651,7 +5947,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s">
         <v>50</v>
@@ -5674,16 +5970,16 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
         <v>177</v>
@@ -5707,7 +6003,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M67" t="s">
         <v>50</v>
@@ -5730,16 +6026,16 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E68" t="s">
         <v>177</v>
@@ -5763,7 +6059,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M68" t="s">
         <v>50</v>
@@ -5786,16 +6082,16 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E69" t="s">
         <v>177</v>
@@ -5842,16 +6138,16 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E70" t="s">
         <v>177</v>
@@ -5898,16 +6194,16 @@
     </row>
     <row r="71" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
         <v>175</v>
@@ -5931,7 +6227,7 @@
         <v>-90.447294497032402</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M71" t="s">
         <v>50</v>
@@ -5954,28 +6250,28 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G72" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H72" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I72" s="1">
         <v>45078</v>
@@ -6010,28 +6306,28 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H73" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I73" s="1">
         <v>45078</v>
@@ -6066,28 +6362,28 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I74" s="1">
         <v>45078</v>
@@ -6122,28 +6418,28 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" t="s">
+        <v>419</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E75" t="s">
         <v>286</v>
       </c>
-      <c r="B75" t="s">
-        <v>378</v>
-      </c>
-      <c r="C75" t="s">
-        <v>420</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E75" t="s">
-        <v>287</v>
-      </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I75" s="1">
         <v>45078</v>
@@ -6178,28 +6474,28 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I76" s="1">
         <v>45078</v>
@@ -6234,28 +6530,28 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I77" s="1">
         <v>45084</v>
@@ -6290,28 +6586,28 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H78" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I78" s="1">
         <v>45084</v>
@@ -6346,28 +6642,28 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G79" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I79" s="1">
         <v>45084</v>
@@ -6402,19 +6698,19 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>306</v>
-      </c>
-      <c r="B80">
-        <v>5</v>
+        <v>305</v>
+      </c>
+      <c r="B80" t="s">
+        <v>514</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F80" t="s">
         <v>162</v>
@@ -6458,19 +6754,19 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E81" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F81" t="s">
         <v>162</v>
@@ -6514,19 +6810,19 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F82" t="s">
         <v>162</v>
@@ -6570,19 +6866,19 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F83" t="s">
         <v>162</v>
@@ -6626,22 +6922,22 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C84" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E84" t="s">
+        <v>263</v>
+      </c>
+      <c r="F84" t="s">
         <v>264</v>
-      </c>
-      <c r="F84" t="s">
-        <v>265</v>
       </c>
       <c r="G84" t="s">
         <v>146</v>
@@ -6682,22 +6978,22 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E85" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85" t="s">
         <v>264</v>
-      </c>
-      <c r="F85" t="s">
-        <v>265</v>
       </c>
       <c r="G85" t="s">
         <v>146</v>
@@ -6738,16 +7034,16 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>317</v>
-      </c>
-      <c r="B86">
-        <v>8</v>
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>515</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E86" t="s">
         <v>181</v>
@@ -6794,16 +7090,16 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B87">
         <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E87" t="s">
         <v>177</v>
@@ -6827,7 +7123,7 @@
         <v>-71.185913999999997</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M87" t="s">
         <v>50</v>
@@ -6850,19 +7146,19 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F88" t="s">
         <v>163</v>
@@ -6883,7 +7179,7 @@
         <v>-76.638570404484994</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M88" t="s">
         <v>50</v>
@@ -6906,19 +7202,19 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C89" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F89" t="s">
         <v>163</v>
@@ -6962,19 +7258,19 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
         <v>163</v>
@@ -6995,7 +7291,7 @@
         <v>-77.188013773757405</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M90" t="s">
         <v>50</v>
@@ -7018,19 +7314,19 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C91" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E91" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F91" t="s">
         <v>163</v>
@@ -7074,19 +7370,19 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C92" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F92" t="s">
         <v>163</v>
@@ -7130,19 +7426,19 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F93" t="s">
         <v>163</v>
@@ -7186,22 +7482,22 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B94" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E94" t="s">
+        <v>344</v>
+      </c>
+      <c r="F94" t="s">
         <v>343</v>
-      </c>
-      <c r="E94" t="s">
-        <v>345</v>
-      </c>
-      <c r="F94" t="s">
-        <v>344</v>
       </c>
       <c r="G94" t="s">
         <v>146</v>
@@ -7242,22 +7538,22 @@
     </row>
     <row r="95" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B95" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F95" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G95" t="s">
         <v>146</v>
@@ -7275,10 +7571,10 @@
         <v>-93.166926000000004</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -7298,19 +7594,19 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F96" t="s">
         <v>163</v>
@@ -7331,7 +7627,7 @@
         <v>-77.114897400000004</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M96" t="s">
         <v>50</v>
@@ -7354,19 +7650,19 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B97">
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F97" t="s">
         <v>163</v>
@@ -7410,19 +7706,19 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B98" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F98" t="s">
         <v>163</v>
@@ -7466,22 +7762,22 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B99" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" t="s">
         <v>401</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>402</v>
-      </c>
-      <c r="F99" t="s">
-        <v>403</v>
       </c>
       <c r="G99" t="s">
         <v>146</v>
@@ -7522,22 +7818,22 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B100">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E100" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F100" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G100" t="s">
         <v>146</v>
@@ -7578,22 +7874,22 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B101">
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E101" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F101" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G101" t="s">
         <v>146</v>
@@ -7634,22 +7930,22 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>398</v>
-      </c>
-      <c r="B102">
-        <v>12</v>
+        <v>397</v>
+      </c>
+      <c r="B102" t="s">
+        <v>516</v>
       </c>
       <c r="C102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E102" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F102" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G102" t="s">
         <v>146</v>
@@ -7690,22 +7986,22 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>399</v>
-      </c>
-      <c r="B103">
-        <v>13</v>
+        <v>398</v>
+      </c>
+      <c r="B103" t="s">
+        <v>517</v>
       </c>
       <c r="C103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E103" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G103" t="s">
         <v>146</v>
@@ -7746,19 +8042,19 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>400</v>
-      </c>
-      <c r="B104">
-        <v>14</v>
+        <v>399</v>
+      </c>
+      <c r="B104" t="s">
+        <v>471</v>
       </c>
       <c r="C104" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F104" t="s">
         <v>235</v>
@@ -7782,7 +8078,7 @@
         <v>41</v>
       </c>
       <c r="M104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -7802,22 +8098,22 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>410</v>
-      </c>
-      <c r="B105">
-        <v>15</v>
+        <v>409</v>
+      </c>
+      <c r="B105" t="s">
+        <v>513</v>
       </c>
       <c r="C105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F105" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G105" t="s">
         <v>146</v>
@@ -7838,7 +8134,7 @@
         <v>42</v>
       </c>
       <c r="M105" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -7858,22 +8154,22 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>409</v>
-      </c>
-      <c r="B106">
-        <v>16</v>
+        <v>408</v>
+      </c>
+      <c r="B106" t="s">
+        <v>472</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E106" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G106" t="s">
         <v>146</v>
@@ -7914,22 +8210,22 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>412</v>
-      </c>
-      <c r="B107">
-        <v>17</v>
+        <v>411</v>
+      </c>
+      <c r="B107" t="s">
+        <v>518</v>
       </c>
       <c r="C107" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E107" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F107" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G107" t="s">
         <v>146</v>
@@ -7970,22 +8266,22 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B108">
         <v>18</v>
       </c>
       <c r="C108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G108" t="s">
         <v>146</v>
@@ -8026,22 +8322,22 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B109">
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E109" t="s">
+        <v>407</v>
+      </c>
+      <c r="F109" t="s">
         <v>414</v>
-      </c>
-      <c r="E109" t="s">
-        <v>408</v>
-      </c>
-      <c r="F109" t="s">
-        <v>415</v>
       </c>
       <c r="G109" t="s">
         <v>146</v>
@@ -8082,10 +8378,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>421</v>
-      </c>
-      <c r="B110">
-        <v>20</v>
+        <v>420</v>
+      </c>
+      <c r="B110" t="s">
+        <v>473</v>
       </c>
       <c r="C110" t="s">
         <v>112</v>
@@ -8094,10 +8390,10 @@
         <v>117</v>
       </c>
       <c r="E110" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110" t="s">
         <v>264</v>
-      </c>
-      <c r="F110" t="s">
-        <v>265</v>
       </c>
       <c r="G110" t="s">
         <v>146</v>
@@ -8138,10 +8434,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>422</v>
-      </c>
-      <c r="B111">
-        <v>21</v>
+        <v>421</v>
+      </c>
+      <c r="B111" t="s">
+        <v>509</v>
       </c>
       <c r="C111" t="s">
         <v>112</v>
@@ -8150,10 +8446,10 @@
         <v>117</v>
       </c>
       <c r="E111" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F111" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G111" t="s">
         <v>146</v>
@@ -8194,19 +8490,19 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>432</v>
+        <v>510</v>
       </c>
       <c r="B112">
         <v>29</v>
       </c>
       <c r="C112" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E112" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F112" t="s">
         <v>165</v>
@@ -8250,19 +8546,19 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>430</v>
-      </c>
-      <c r="B113">
-        <v>27</v>
+        <v>429</v>
+      </c>
+      <c r="B113" t="s">
+        <v>519</v>
       </c>
       <c r="C113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F113" t="s">
         <v>163</v>
@@ -8306,19 +8602,19 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>431</v>
-      </c>
-      <c r="B114">
-        <v>28</v>
+        <v>430</v>
+      </c>
+      <c r="B114" t="s">
+        <v>520</v>
       </c>
       <c r="C114" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E114" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F114" t="s">
         <v>163</v>
@@ -8362,16 +8658,16 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>425</v>
-      </c>
-      <c r="B115">
-        <v>22</v>
+        <v>424</v>
+      </c>
+      <c r="B115" t="s">
+        <v>511</v>
       </c>
       <c r="C115" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E115" t="s">
         <v>133</v>
@@ -8418,16 +8714,16 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B116">
         <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
         <v>133</v>
@@ -8474,22 +8770,22 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B117">
         <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E117" t="s">
         <v>434</v>
       </c>
-      <c r="E117" t="s">
-        <v>436</v>
-      </c>
       <c r="F117" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G117" t="s">
         <v>146</v>
@@ -8530,22 +8826,22 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B118">
         <v>24</v>
       </c>
       <c r="C118" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E118" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F118" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G118" t="s">
         <v>146</v>
@@ -8586,22 +8882,22 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>429</v>
-      </c>
-      <c r="B119">
-        <v>26</v>
+        <v>428</v>
+      </c>
+      <c r="B119" t="s">
+        <v>512</v>
       </c>
       <c r="C119" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E119" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F119" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G119" t="s">
         <v>146</v>
@@ -8642,22 +8938,22 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>442</v>
-      </c>
-      <c r="B120">
-        <v>30</v>
+        <v>454</v>
+      </c>
+      <c r="B120" t="s">
+        <v>455</v>
       </c>
       <c r="C120" t="s">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>230</v>
+        <v>467</v>
       </c>
       <c r="E120" t="s">
-        <v>327</v>
+        <v>466</v>
       </c>
       <c r="F120" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G120" t="s">
         <v>146</v>
@@ -8666,51 +8962,51 @@
         <v>146</v>
       </c>
       <c r="I120" s="1">
-        <v>45383</v>
+        <v>45373</v>
       </c>
       <c r="J120" s="4">
-        <v>39.056086162518199</v>
+        <v>38.839186682879301</v>
       </c>
       <c r="K120" s="4">
-        <v>-77.114897400000004</v>
+        <v>-77.250511739112895</v>
       </c>
       <c r="L120" s="6">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M120" t="s">
-        <v>50</v>
+        <v>462</v>
       </c>
       <c r="N120">
         <v>1</v>
       </c>
       <c r="O120">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="P120">
-        <v>6.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q120">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="R120">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B121">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C121" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F121" t="s">
         <v>163</v>
@@ -8731,7 +9027,7 @@
         <v>-77.114897400000004</v>
       </c>
       <c r="L121" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M121" t="s">
         <v>50</v>
@@ -8740,36 +9036,36 @@
         <v>1</v>
       </c>
       <c r="O121">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P121">
+        <v>6.7</v>
+      </c>
+      <c r="Q121">
         <v>5.7</v>
       </c>
-      <c r="Q121">
-        <v>5.6</v>
-      </c>
       <c r="R121">
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B122">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>448</v>
+        <v>230</v>
       </c>
       <c r="E122" t="s">
-        <v>450</v>
+        <v>326</v>
       </c>
       <c r="F122" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G122" t="s">
         <v>146</v>
@@ -8778,54 +9074,51 @@
         <v>146</v>
       </c>
       <c r="I122" s="1">
-        <v>45403</v>
+        <v>45383</v>
       </c>
       <c r="J122" s="4">
-        <v>28.4809629890139</v>
+        <v>39.056086162518199</v>
       </c>
       <c r="K122" s="4">
-        <v>-81.467406691372901</v>
+        <v>-77.114897400000004</v>
       </c>
       <c r="L122" s="6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M122" t="s">
         <v>50</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P122">
-        <v>4.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="Q122">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="R122">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123">
-        <v>34</v>
+        <v>480</v>
       </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="E123" t="s">
-        <v>450</v>
+        <v>166</v>
       </c>
       <c r="F123" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="G123" t="s">
         <v>146</v>
@@ -8834,54 +9127,54 @@
         <v>146</v>
       </c>
       <c r="I123" s="1">
-        <v>45403</v>
-      </c>
-      <c r="J123" s="4">
-        <v>28.4809629890139</v>
-      </c>
-      <c r="K123" s="4">
-        <v>-81.467406691372901</v>
+        <v>45387</v>
+      </c>
+      <c r="J123" s="7">
+        <v>51.512269242337602</v>
+      </c>
+      <c r="K123" s="7">
+        <v>-0.128315389166857</v>
       </c>
       <c r="L123" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M123" t="s">
-        <v>50</v>
+        <v>489</v>
       </c>
       <c r="N123">
         <v>1</v>
       </c>
       <c r="O123">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="P123">
-        <v>5.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q123">
-        <v>5.4</v>
+        <v>8.6</v>
       </c>
       <c r="R123">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>447</v>
-      </c>
-      <c r="B124">
-        <v>36</v>
+        <v>490</v>
+      </c>
+      <c r="B124" t="s">
+        <v>500</v>
       </c>
       <c r="C124" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E124" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="F124" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="G124" t="s">
         <v>146</v>
@@ -8890,51 +9183,51 @@
         <v>146</v>
       </c>
       <c r="I124" s="1">
-        <v>45403</v>
-      </c>
-      <c r="J124" s="4">
-        <v>29.232650252891698</v>
-      </c>
-      <c r="K124" s="4">
-        <v>-81.107395234459503</v>
-      </c>
-      <c r="L124" s="6">
-        <v>52</v>
+        <v>45387</v>
+      </c>
+      <c r="J124" s="7">
+        <v>51.512269242337602</v>
+      </c>
+      <c r="K124" s="7">
+        <v>-0.128315389166857</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="M124" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="N124">
         <v>1</v>
       </c>
       <c r="O124">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="P124">
-        <v>7.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R124">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B125">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E125" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s">
         <v>167</v>
@@ -8946,51 +9239,51 @@
         <v>146</v>
       </c>
       <c r="I125" s="1">
-        <v>45407</v>
+        <v>45403</v>
       </c>
       <c r="J125" s="4">
-        <v>28.371808918683801</v>
+        <v>28.4809629890139</v>
       </c>
       <c r="K125" s="4">
-        <v>-81.517879136438097</v>
+        <v>-81.467406691372901</v>
       </c>
       <c r="L125" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M125" t="s">
         <v>50</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="P125">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q125">
-        <v>4.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="R125">
-        <v>5.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>241</v>
+      </c>
+      <c r="B126">
+        <v>34</v>
+      </c>
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B126">
-        <v>35</v>
-      </c>
-      <c r="C126" t="s">
-        <v>420</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="E126" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
         <v>167</v>
@@ -9002,16 +9295,16 @@
         <v>146</v>
       </c>
       <c r="I126" s="1">
-        <v>45407</v>
+        <v>45403</v>
       </c>
       <c r="J126" s="4">
-        <v>28.371808918683801</v>
+        <v>28.4809629890139</v>
       </c>
       <c r="K126" s="4">
-        <v>-81.517879136438097</v>
+        <v>-81.467406691372901</v>
       </c>
       <c r="L126" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M126" t="s">
         <v>50</v>
@@ -9020,33 +9313,33 @@
         <v>1</v>
       </c>
       <c r="O126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P126">
+        <v>5.9</v>
+      </c>
+      <c r="Q126">
         <v>5.4</v>
       </c>
-      <c r="Q126">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="R126">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>454</v>
-      </c>
-      <c r="B127">
-        <v>60</v>
+        <v>445</v>
+      </c>
+      <c r="B127" t="s">
+        <v>508</v>
       </c>
       <c r="C127" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E127" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F127" t="s">
         <v>167</v>
@@ -9058,34 +9351,2155 @@
         <v>146</v>
       </c>
       <c r="I127" s="1">
-        <v>45405</v>
+        <v>45403</v>
       </c>
       <c r="J127" s="4">
-        <v>28.3616867683712</v>
+        <v>29.232650252891698</v>
       </c>
       <c r="K127" s="4">
-        <v>-81.544157111972098</v>
+        <v>-81.107395234459503</v>
       </c>
       <c r="L127" s="6">
         <v>52</v>
       </c>
       <c r="M127" t="s">
+        <v>447</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>48</v>
+      </c>
+      <c r="P127">
+        <v>7.6</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128">
+        <v>60</v>
+      </c>
+      <c r="C128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E128" t="s">
+        <v>450</v>
+      </c>
+      <c r="F128" t="s">
+        <v>167</v>
+      </c>
+      <c r="G128" t="s">
+        <v>146</v>
+      </c>
+      <c r="H128" t="s">
+        <v>146</v>
+      </c>
+      <c r="I128" s="1">
+        <v>45405</v>
+      </c>
+      <c r="J128" s="4">
+        <v>28.3616867683712</v>
+      </c>
+      <c r="K128" s="4">
+        <v>-81.544157111972098</v>
+      </c>
+      <c r="L128" s="6">
+        <v>52</v>
+      </c>
+      <c r="M128" t="s">
+        <v>447</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>19</v>
+      </c>
+      <c r="P128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>5.3</v>
+      </c>
+      <c r="R128">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>442</v>
+      </c>
+      <c r="B129">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>419</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <v>19</v>
-      </c>
-      <c r="P127">
+      <c r="E129" t="s">
+        <v>450</v>
+      </c>
+      <c r="F129" t="s">
+        <v>167</v>
+      </c>
+      <c r="G129" t="s">
+        <v>146</v>
+      </c>
+      <c r="H129" t="s">
+        <v>146</v>
+      </c>
+      <c r="I129" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J129" s="4">
+        <v>28.371808918683801</v>
+      </c>
+      <c r="K129" s="4">
+        <v>-81.517879136438097</v>
+      </c>
+      <c r="L129" s="6">
+        <v>48</v>
+      </c>
+      <c r="M129" t="s">
+        <v>50</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>18</v>
+      </c>
+      <c r="P129">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q129">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R129">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>444</v>
+      </c>
+      <c r="B130">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>419</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E130" t="s">
+        <v>448</v>
+      </c>
+      <c r="F130" t="s">
+        <v>167</v>
+      </c>
+      <c r="G130" t="s">
+        <v>146</v>
+      </c>
+      <c r="H130" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" s="1">
+        <v>45407</v>
+      </c>
+      <c r="J130" s="4">
+        <v>28.371808918683801</v>
+      </c>
+      <c r="K130" s="4">
+        <v>-81.517879136438097</v>
+      </c>
+      <c r="L130" s="6">
+        <v>51</v>
+      </c>
+      <c r="M130" t="s">
+        <v>50</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>14</v>
+      </c>
+      <c r="P130">
+        <v>5.4</v>
+      </c>
+      <c r="Q130">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R130">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>456</v>
+      </c>
+      <c r="B131" t="s">
+        <v>461</v>
+      </c>
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E131" t="s">
+        <v>277</v>
+      </c>
+      <c r="F131" t="s">
+        <v>162</v>
+      </c>
+      <c r="G131" t="s">
+        <v>146</v>
+      </c>
+      <c r="H131" t="s">
+        <v>146</v>
+      </c>
+      <c r="I131" s="1">
+        <v>45423</v>
+      </c>
+      <c r="J131" s="4">
+        <v>42.391584881939998</v>
+      </c>
+      <c r="K131" s="4">
+        <v>-71.079708776993598</v>
+      </c>
+      <c r="L131" s="6">
+        <v>52</v>
+      </c>
+      <c r="M131" t="s">
+        <v>50</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>14</v>
+      </c>
+      <c r="P131">
+        <v>5.5</v>
+      </c>
+      <c r="Q131">
         <v>5</v>
       </c>
-      <c r="Q127">
+      <c r="R131">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>457</v>
+      </c>
+      <c r="B132" t="s">
+        <v>460</v>
+      </c>
+      <c r="C132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F132" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" t="s">
+        <v>146</v>
+      </c>
+      <c r="H132" t="s">
+        <v>146</v>
+      </c>
+      <c r="I132" s="1">
+        <v>45423</v>
+      </c>
+      <c r="J132" s="4">
+        <v>42.391584881939998</v>
+      </c>
+      <c r="K132" s="4">
+        <v>-71.079708776993598</v>
+      </c>
+      <c r="L132" s="6">
+        <v>52</v>
+      </c>
+      <c r="M132" t="s">
+        <v>50</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>15</v>
+      </c>
+      <c r="P132">
+        <v>5.5</v>
+      </c>
+      <c r="Q132">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>492</v>
+      </c>
+      <c r="B133" t="s">
+        <v>498</v>
+      </c>
+      <c r="C133" t="s">
+        <v>419</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" t="s">
+        <v>150</v>
+      </c>
+      <c r="F133" t="s">
+        <v>418</v>
+      </c>
+      <c r="G133" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s">
+        <v>157</v>
+      </c>
+      <c r="I133" s="1">
+        <v>45423</v>
+      </c>
+      <c r="J133" s="4">
+        <v>41.383288264971597</v>
+      </c>
+      <c r="K133" s="4">
+        <v>2.17472047195628</v>
+      </c>
+      <c r="L133" s="6">
+        <v>52</v>
+      </c>
+      <c r="M133" t="s">
+        <v>497</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>36</v>
+      </c>
+      <c r="P133">
+        <v>8</v>
+      </c>
+      <c r="Q133">
+        <v>7.5</v>
+      </c>
+      <c r="R133">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>458</v>
+      </c>
+      <c r="C134" t="s">
+        <v>459</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E134" t="s">
+        <v>466</v>
+      </c>
+      <c r="F134" t="s">
+        <v>168</v>
+      </c>
+      <c r="G134" t="s">
+        <v>146</v>
+      </c>
+      <c r="H134" t="s">
+        <v>146</v>
+      </c>
+      <c r="I134" s="1">
+        <v>45463</v>
+      </c>
+      <c r="J134" s="4">
+        <v>38.894594926601499</v>
+      </c>
+      <c r="K134" s="4">
+        <v>-77.072504873502993</v>
+      </c>
+      <c r="L134" s="6">
+        <v>52</v>
+      </c>
+      <c r="M134" t="s">
+        <v>463</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
+        <v>6</v>
+      </c>
+      <c r="P134">
+        <v>3.2</v>
+      </c>
+      <c r="Q134">
+        <v>3.5</v>
+      </c>
+      <c r="R134">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>491</v>
+      </c>
+      <c r="B135" t="s">
+        <v>499</v>
+      </c>
+      <c r="C135" t="s">
+        <v>419</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E135" t="s">
+        <v>494</v>
+      </c>
+      <c r="F135" t="s">
+        <v>418</v>
+      </c>
+      <c r="G135" t="s">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s">
+        <v>157</v>
+      </c>
+      <c r="I135" s="1">
+        <v>45533</v>
+      </c>
+      <c r="J135" s="4">
+        <v>40.415310251762001</v>
+      </c>
+      <c r="K135" s="4">
+        <v>-3.7065986595056</v>
+      </c>
+      <c r="L135" s="6">
+        <v>52</v>
+      </c>
+      <c r="M135" t="s">
+        <v>496</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>35</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>7.5</v>
+      </c>
+      <c r="R135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>474</v>
+      </c>
+      <c r="B136" t="s">
+        <v>502</v>
+      </c>
+      <c r="C136" t="s">
+        <v>419</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E136" t="s">
+        <v>326</v>
+      </c>
+      <c r="F136" t="s">
+        <v>163</v>
+      </c>
+      <c r="G136" t="s">
+        <v>146</v>
+      </c>
+      <c r="H136" t="s">
+        <v>146</v>
+      </c>
+      <c r="I136" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J136" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K136" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L136" s="6">
+        <v>52</v>
+      </c>
+      <c r="M136" t="s">
+        <v>50</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>27</v>
+      </c>
+      <c r="P136">
+        <v>6</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>475</v>
+      </c>
+      <c r="B137" t="s">
+        <v>503</v>
+      </c>
+      <c r="C137" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E137" t="s">
+        <v>326</v>
+      </c>
+      <c r="F137" t="s">
+        <v>163</v>
+      </c>
+      <c r="G137" t="s">
+        <v>146</v>
+      </c>
+      <c r="H137" t="s">
+        <v>146</v>
+      </c>
+      <c r="I137" s="1">
+        <v>45541</v>
+      </c>
+      <c r="J137" s="4">
+        <v>39.056086162518199</v>
+      </c>
+      <c r="K137" s="4">
+        <v>-77.114897400000004</v>
+      </c>
+      <c r="L137" s="6">
+        <v>52</v>
+      </c>
+      <c r="M137" t="s">
+        <v>50</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>32</v>
+      </c>
+      <c r="P137">
+        <v>6.5</v>
+      </c>
+      <c r="Q137">
+        <v>8</v>
+      </c>
+      <c r="R137">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>476</v>
+      </c>
+      <c r="B138" t="s">
+        <v>504</v>
+      </c>
+      <c r="C138" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E138" t="s">
+        <v>493</v>
+      </c>
+      <c r="F138" t="s">
+        <v>343</v>
+      </c>
+      <c r="G138" t="s">
+        <v>146</v>
+      </c>
+      <c r="H138" t="s">
+        <v>146</v>
+      </c>
+      <c r="I138" s="1">
+        <v>45542</v>
+      </c>
+      <c r="J138" s="4">
+        <v>44.889180370282901</v>
+      </c>
+      <c r="K138" s="4">
+        <v>-93.451123559108794</v>
+      </c>
+      <c r="L138" s="6">
+        <v>52</v>
+      </c>
+      <c r="M138" t="s">
+        <v>345</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>38</v>
+      </c>
+      <c r="P138">
+        <v>7</v>
+      </c>
+      <c r="Q138">
+        <v>7.1</v>
+      </c>
+      <c r="R138">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>477</v>
+      </c>
+      <c r="B139" t="s">
+        <v>505</v>
+      </c>
+      <c r="C139" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E139" t="s">
+        <v>326</v>
+      </c>
+      <c r="F139" t="s">
+        <v>163</v>
+      </c>
+      <c r="G139" t="s">
+        <v>146</v>
+      </c>
+      <c r="H139" t="s">
+        <v>146</v>
+      </c>
+      <c r="I139" s="1">
+        <v>45542</v>
+      </c>
+      <c r="J139" s="4">
+        <v>39.065469812809098</v>
+      </c>
+      <c r="K139" s="4">
+        <v>-77.126076930275005</v>
+      </c>
+      <c r="L139" s="6">
+        <v>52</v>
+      </c>
+      <c r="M139" t="s">
+        <v>50</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>60</v>
+      </c>
+      <c r="P139">
+        <v>10.7</v>
+      </c>
+      <c r="Q139">
+        <v>6.4</v>
+      </c>
+      <c r="R139">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>478</v>
+      </c>
+      <c r="B140" t="s">
+        <v>507</v>
+      </c>
+      <c r="C140" t="s">
+        <v>419</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E140" t="s">
+        <v>326</v>
+      </c>
+      <c r="F140" t="s">
+        <v>163</v>
+      </c>
+      <c r="G140" t="s">
+        <v>146</v>
+      </c>
+      <c r="H140" t="s">
+        <v>146</v>
+      </c>
+      <c r="I140" s="1">
+        <v>45545</v>
+      </c>
+      <c r="J140" s="4">
+        <v>39.060021683821503</v>
+      </c>
+      <c r="K140" s="4">
+        <v>-77.118856423658599</v>
+      </c>
+      <c r="L140" s="6">
+        <v>52</v>
+      </c>
+      <c r="M140" t="s">
+        <v>50</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>12</v>
+      </c>
+      <c r="P140">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q140">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R140">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>479</v>
+      </c>
+      <c r="B141" t="s">
+        <v>506</v>
+      </c>
+      <c r="C141" t="s">
+        <v>419</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E141" t="s">
+        <v>326</v>
+      </c>
+      <c r="F141" t="s">
+        <v>163</v>
+      </c>
+      <c r="G141" t="s">
+        <v>146</v>
+      </c>
+      <c r="H141" t="s">
+        <v>146</v>
+      </c>
+      <c r="I141" s="1">
+        <v>45545</v>
+      </c>
+      <c r="J141" s="4">
+        <v>39.060021683821503</v>
+      </c>
+      <c r="K141" s="4">
+        <v>-77.118856423658599</v>
+      </c>
+      <c r="L141" s="6">
+        <v>52</v>
+      </c>
+      <c r="M141" t="s">
+        <v>50</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141">
+        <v>12</v>
+      </c>
+      <c r="P141">
+        <v>5.8</v>
+      </c>
+      <c r="Q141">
+        <v>3.6</v>
+      </c>
+      <c r="R141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>481</v>
+      </c>
+      <c r="B142" t="s">
+        <v>488</v>
+      </c>
+      <c r="C142" t="s">
+        <v>419</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E142" t="s">
+        <v>407</v>
+      </c>
+      <c r="F142" t="s">
+        <v>414</v>
+      </c>
+      <c r="G142" t="s">
+        <v>146</v>
+      </c>
+      <c r="H142" t="s">
+        <v>146</v>
+      </c>
+      <c r="I142" s="1">
+        <v>45555</v>
+      </c>
+      <c r="J142" s="4">
+        <v>36.1176694612709</v>
+      </c>
+      <c r="K142" s="4">
+        <v>-115.16847327290699</v>
+      </c>
+      <c r="L142" s="6">
+        <v>52</v>
+      </c>
+      <c r="M142" t="s">
+        <v>50</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>145</v>
+      </c>
+      <c r="P142">
+        <v>12</v>
+      </c>
+      <c r="Q142">
+        <v>8.9</v>
+      </c>
+      <c r="R142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>482</v>
+      </c>
+      <c r="B143" t="s">
+        <v>487</v>
+      </c>
+      <c r="C143" t="s">
+        <v>419</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E143" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" t="s">
+        <v>414</v>
+      </c>
+      <c r="G143" t="s">
+        <v>146</v>
+      </c>
+      <c r="H143" t="s">
+        <v>146</v>
+      </c>
+      <c r="I143" s="1">
+        <v>45555</v>
+      </c>
+      <c r="J143" s="4">
+        <v>36.1176694612709</v>
+      </c>
+      <c r="K143" s="4">
+        <v>-115.16847327290699</v>
+      </c>
+      <c r="L143" s="6">
+        <v>52</v>
+      </c>
+      <c r="M143" t="s">
+        <v>50</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143">
+        <v>167</v>
+      </c>
+      <c r="P143">
+        <v>12.1</v>
+      </c>
+      <c r="Q143">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R143">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>521</v>
+      </c>
+      <c r="B144">
+        <v>61</v>
+      </c>
+      <c r="C144" t="s">
+        <v>419</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E144" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" t="s">
+        <v>163</v>
+      </c>
+      <c r="G144" t="s">
+        <v>146</v>
+      </c>
+      <c r="H144" t="s">
+        <v>146</v>
+      </c>
+      <c r="I144" s="1">
+        <v>45571</v>
+      </c>
+      <c r="J144" s="4">
+        <v>39.050448325931697</v>
+      </c>
+      <c r="K144" s="4">
+        <v>-77.117330000261205</v>
+      </c>
+      <c r="L144" s="6">
+        <v>52</v>
+      </c>
+      <c r="M144" t="s">
+        <v>50</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>10</v>
+      </c>
+      <c r="P144">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q144">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R144">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>522</v>
+      </c>
+      <c r="B145">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>419</v>
+      </c>
+      <c r="E145" t="s">
+        <v>263</v>
+      </c>
+      <c r="F145" t="s">
+        <v>264</v>
+      </c>
+      <c r="G145" t="s">
+        <v>146</v>
+      </c>
+      <c r="H145" t="s">
+        <v>146</v>
+      </c>
+      <c r="I145" s="1">
+        <v>45604</v>
+      </c>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="6">
+        <v>52</v>
+      </c>
+      <c r="M145" t="s">
+        <v>51</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>17</v>
+      </c>
+      <c r="P145">
+        <v>6.1</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="R145">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>523</v>
+      </c>
+      <c r="B146">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146" t="s">
+        <v>263</v>
+      </c>
+      <c r="F146" t="s">
+        <v>264</v>
+      </c>
+      <c r="G146" t="s">
+        <v>146</v>
+      </c>
+      <c r="H146" t="s">
+        <v>146</v>
+      </c>
+      <c r="I146" s="1">
+        <v>45604</v>
+      </c>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="6">
+        <v>52</v>
+      </c>
+      <c r="M146" t="s">
+        <v>51</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>16</v>
+      </c>
+      <c r="P146">
+        <v>5.2</v>
+      </c>
+      <c r="Q146">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R146">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>524</v>
+      </c>
+      <c r="B147">
+        <v>64</v>
+      </c>
+      <c r="C147" t="s">
+        <v>419</v>
+      </c>
+      <c r="E147" t="s">
+        <v>263</v>
+      </c>
+      <c r="F147" t="s">
+        <v>264</v>
+      </c>
+      <c r="G147" t="s">
+        <v>146</v>
+      </c>
+      <c r="H147" t="s">
+        <v>146</v>
+      </c>
+      <c r="I147" s="1">
+        <v>45604</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="6">
+        <v>52</v>
+      </c>
+      <c r="M147" t="s">
+        <v>51</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147">
+        <v>18</v>
+      </c>
+      <c r="P147">
+        <v>6.1</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>525</v>
+      </c>
+      <c r="B148">
+        <v>65</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E148" t="s">
+        <v>326</v>
+      </c>
+      <c r="F148" t="s">
+        <v>163</v>
+      </c>
+      <c r="G148" t="s">
+        <v>146</v>
+      </c>
+      <c r="H148" t="s">
+        <v>146</v>
+      </c>
+      <c r="I148" s="1"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="6">
+        <v>52</v>
+      </c>
+      <c r="M148" t="s">
+        <v>50</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>23</v>
+      </c>
+      <c r="P148">
+        <v>7.5</v>
+      </c>
+      <c r="Q148">
+        <v>6.2</v>
+      </c>
+      <c r="R148">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>526</v>
+      </c>
+      <c r="B149">
+        <v>66</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E149" t="s">
+        <v>326</v>
+      </c>
+      <c r="F149" t="s">
+        <v>163</v>
+      </c>
+      <c r="G149" t="s">
+        <v>146</v>
+      </c>
+      <c r="H149" t="s">
+        <v>146</v>
+      </c>
+      <c r="I149" s="1"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="6">
+        <v>52</v>
+      </c>
+      <c r="M149" t="s">
+        <v>50</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149">
+        <v>26</v>
+      </c>
+      <c r="P149">
+        <v>7.7</v>
+      </c>
+      <c r="Q149">
+        <v>5.2</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>527</v>
+      </c>
+      <c r="B150">
+        <v>67</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E150" t="s">
+        <v>326</v>
+      </c>
+      <c r="F150" t="s">
+        <v>163</v>
+      </c>
+      <c r="G150" t="s">
+        <v>146</v>
+      </c>
+      <c r="H150" t="s">
+        <v>146</v>
+      </c>
+      <c r="I150" s="1"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="6">
+        <v>52</v>
+      </c>
+      <c r="M150" t="s">
+        <v>50</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150">
+        <v>25</v>
+      </c>
+      <c r="P150">
+        <v>7.3</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>528</v>
+      </c>
+      <c r="B151">
+        <v>68</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E151" t="s">
+        <v>528</v>
+      </c>
+      <c r="G151" t="s">
+        <v>543</v>
+      </c>
+      <c r="H151" t="s">
+        <v>543</v>
+      </c>
+      <c r="I151" s="1"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="6">
+        <v>52</v>
+      </c>
+      <c r="M151" t="s">
+        <v>462</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>48</v>
+      </c>
+      <c r="P151">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Q151">
+        <v>7.3</v>
+      </c>
+      <c r="R151">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>529</v>
+      </c>
+      <c r="B152">
+        <v>69</v>
+      </c>
+      <c r="E152" t="s">
+        <v>175</v>
+      </c>
+      <c r="F152" t="s">
+        <v>164</v>
+      </c>
+      <c r="G152" t="s">
+        <v>146</v>
+      </c>
+      <c r="H152" t="s">
+        <v>146</v>
+      </c>
+      <c r="I152" s="1"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="6">
+        <v>52</v>
+      </c>
+      <c r="M152" t="s">
+        <v>50</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>20</v>
+      </c>
+      <c r="P152">
+        <v>5</v>
+      </c>
+      <c r="Q152">
+        <v>5.9</v>
+      </c>
+      <c r="R152">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>530</v>
+      </c>
+      <c r="B153">
+        <v>70</v>
+      </c>
+      <c r="E153" t="s">
+        <v>542</v>
+      </c>
+      <c r="F153" t="s">
+        <v>436</v>
+      </c>
+      <c r="G153" t="s">
+        <v>146</v>
+      </c>
+      <c r="H153" t="s">
+        <v>146</v>
+      </c>
+      <c r="I153" s="1"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="6">
+        <v>52</v>
+      </c>
+      <c r="M153" t="s">
+        <v>345</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>16</v>
+      </c>
+      <c r="P153">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q153">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>531</v>
+      </c>
+      <c r="B154">
+        <v>71</v>
+      </c>
+      <c r="E154" t="s">
+        <v>542</v>
+      </c>
+      <c r="F154" t="s">
+        <v>436</v>
+      </c>
+      <c r="G154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H154" t="s">
+        <v>146</v>
+      </c>
+      <c r="I154" s="1"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="6">
+        <v>52</v>
+      </c>
+      <c r="M154" t="s">
+        <v>345</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>22</v>
+      </c>
+      <c r="P154">
+        <v>6.5</v>
+      </c>
+      <c r="Q154">
+        <v>5</v>
+      </c>
+      <c r="R154">
         <v>5.3</v>
       </c>
-      <c r="R127">
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>532</v>
+      </c>
+      <c r="B155">
+        <v>72</v>
+      </c>
+      <c r="E155" t="s">
+        <v>542</v>
+      </c>
+      <c r="F155" t="s">
+        <v>436</v>
+      </c>
+      <c r="G155" t="s">
+        <v>146</v>
+      </c>
+      <c r="H155" t="s">
+        <v>146</v>
+      </c>
+      <c r="I155" s="1"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="6">
+        <v>52</v>
+      </c>
+      <c r="M155" t="s">
+        <v>345</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>15</v>
+      </c>
+      <c r="P155">
+        <v>5.4</v>
+      </c>
+      <c r="Q155">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R155">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>533</v>
+      </c>
+      <c r="B156">
+        <v>73</v>
+      </c>
+      <c r="E156" t="s">
+        <v>542</v>
+      </c>
+      <c r="F156" t="s">
+        <v>436</v>
+      </c>
+      <c r="G156" t="s">
+        <v>146</v>
+      </c>
+      <c r="H156" t="s">
+        <v>146</v>
+      </c>
+      <c r="I156" s="1"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="6">
+        <v>52</v>
+      </c>
+      <c r="M156" t="s">
+        <v>345</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>52</v>
+      </c>
+      <c r="P156">
+        <v>7.2</v>
+      </c>
+      <c r="Q156">
+        <v>7.1</v>
+      </c>
+      <c r="R156">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>534</v>
+      </c>
+      <c r="B157">
+        <v>74</v>
+      </c>
+      <c r="E157" t="s">
+        <v>542</v>
+      </c>
+      <c r="F157" t="s">
+        <v>436</v>
+      </c>
+      <c r="G157" t="s">
+        <v>146</v>
+      </c>
+      <c r="H157" t="s">
+        <v>146</v>
+      </c>
+      <c r="I157" s="1"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="6">
+        <v>52</v>
+      </c>
+      <c r="M157" t="s">
+        <v>345</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>75</v>
+      </c>
+      <c r="P157">
+        <v>8</v>
+      </c>
+      <c r="Q157">
+        <v>7.3</v>
+      </c>
+      <c r="R157">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>535</v>
+      </c>
+      <c r="B158">
+        <v>75</v>
+      </c>
+      <c r="E158" t="s">
+        <v>423</v>
+      </c>
+      <c r="F158" t="s">
+        <v>422</v>
+      </c>
+      <c r="G158" t="s">
+        <v>146</v>
+      </c>
+      <c r="H158" t="s">
+        <v>146</v>
+      </c>
+      <c r="I158" s="1"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="6">
+        <v>52</v>
+      </c>
+      <c r="M158" t="s">
+        <v>541</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>20</v>
+      </c>
+      <c r="P158">
+        <v>6.6</v>
+      </c>
+      <c r="Q158">
         <v>5.5</v>
+      </c>
+      <c r="R158">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>536</v>
+      </c>
+      <c r="B159">
+        <v>76</v>
+      </c>
+      <c r="E159" t="s">
+        <v>423</v>
+      </c>
+      <c r="F159" t="s">
+        <v>422</v>
+      </c>
+      <c r="G159" t="s">
+        <v>146</v>
+      </c>
+      <c r="H159" t="s">
+        <v>146</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="6">
+        <v>52</v>
+      </c>
+      <c r="M159" t="s">
+        <v>541</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>27</v>
+      </c>
+      <c r="P159">
+        <v>6</v>
+      </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
+      <c r="R159">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>537</v>
+      </c>
+      <c r="B160">
+        <v>77</v>
+      </c>
+      <c r="E160" t="s">
+        <v>423</v>
+      </c>
+      <c r="F160" t="s">
+        <v>422</v>
+      </c>
+      <c r="G160" t="s">
+        <v>146</v>
+      </c>
+      <c r="H160" t="s">
+        <v>146</v>
+      </c>
+      <c r="I160" s="1"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="6">
+        <v>52</v>
+      </c>
+      <c r="M160" t="s">
+        <v>541</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>21</v>
+      </c>
+      <c r="P160">
+        <v>6</v>
+      </c>
+      <c r="Q160">
+        <v>5.4</v>
+      </c>
+      <c r="R160">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>538</v>
+      </c>
+      <c r="B161">
+        <v>78</v>
+      </c>
+      <c r="E161" t="s">
+        <v>423</v>
+      </c>
+      <c r="F161" t="s">
+        <v>422</v>
+      </c>
+      <c r="G161" t="s">
+        <v>146</v>
+      </c>
+      <c r="H161" t="s">
+        <v>146</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="6">
+        <v>52</v>
+      </c>
+      <c r="M161" t="s">
+        <v>541</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>22</v>
+      </c>
+      <c r="P161">
+        <v>6.3</v>
+      </c>
+      <c r="Q161">
+        <v>5.3</v>
+      </c>
+      <c r="R161">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>539</v>
+      </c>
+      <c r="B162">
+        <v>79</v>
+      </c>
+      <c r="E162" t="s">
+        <v>423</v>
+      </c>
+      <c r="F162" t="s">
+        <v>422</v>
+      </c>
+      <c r="G162" t="s">
+        <v>146</v>
+      </c>
+      <c r="H162" t="s">
+        <v>146</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="6">
+        <v>52</v>
+      </c>
+      <c r="M162" t="s">
+        <v>541</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>17</v>
+      </c>
+      <c r="P162">
+        <v>5.4</v>
+      </c>
+      <c r="Q162">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R162">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>540</v>
+      </c>
+      <c r="B163">
+        <v>80</v>
+      </c>
+      <c r="E163" t="s">
+        <v>423</v>
+      </c>
+      <c r="F163" t="s">
+        <v>422</v>
+      </c>
+      <c r="G163" t="s">
+        <v>146</v>
+      </c>
+      <c r="H163" t="s">
+        <v>146</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="6">
+        <v>52</v>
+      </c>
+      <c r="M163" t="s">
+        <v>541</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>23</v>
+      </c>
+      <c r="P163">
+        <v>5.3</v>
+      </c>
+      <c r="Q163">
+        <v>5.6</v>
+      </c>
+      <c r="R163">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>545</v>
+      </c>
+      <c r="B164">
+        <v>81</v>
+      </c>
+      <c r="C164" t="s">
+        <v>419</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G164" t="s">
+        <v>146</v>
+      </c>
+      <c r="H164" t="s">
+        <v>146</v>
+      </c>
+      <c r="I164" s="1"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="6">
+        <v>52</v>
+      </c>
+      <c r="M164" t="s">
+        <v>550</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>29</v>
+      </c>
+      <c r="P164">
+        <v>6.1</v>
+      </c>
+      <c r="Q164">
+        <v>6.2</v>
+      </c>
+      <c r="R164">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>546</v>
+      </c>
+      <c r="B165">
+        <v>82</v>
+      </c>
+      <c r="C165" t="s">
+        <v>419</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G165" t="s">
+        <v>146</v>
+      </c>
+      <c r="H165" t="s">
+        <v>146</v>
+      </c>
+      <c r="I165" s="1"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="6">
+        <v>52</v>
+      </c>
+      <c r="M165" t="s">
+        <v>550</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165">
+        <v>30</v>
+      </c>
+      <c r="P165">
+        <v>7.2</v>
+      </c>
+      <c r="Q165">
+        <v>6.1</v>
+      </c>
+      <c r="R165">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>547</v>
+      </c>
+      <c r="B166">
+        <v>83</v>
+      </c>
+      <c r="C166" t="s">
+        <v>419</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G166" t="s">
+        <v>146</v>
+      </c>
+      <c r="H166" t="s">
+        <v>146</v>
+      </c>
+      <c r="I166" s="1"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="6">
+        <v>52</v>
+      </c>
+      <c r="M166" t="s">
+        <v>550</v>
+      </c>
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166">
+        <v>30</v>
+      </c>
+      <c r="P166">
+        <v>6.3</v>
+      </c>
+      <c r="Q166">
+        <v>6.2</v>
+      </c>
+      <c r="R166">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>548</v>
+      </c>
+      <c r="B167">
+        <v>84</v>
+      </c>
+      <c r="C167" t="s">
+        <v>419</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G167" t="s">
+        <v>146</v>
+      </c>
+      <c r="H167" t="s">
+        <v>146</v>
+      </c>
+      <c r="I167" s="1"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="6">
+        <v>52</v>
+      </c>
+      <c r="M167" t="s">
+        <v>550</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167">
+        <v>30</v>
+      </c>
+      <c r="P167">
+        <v>6.8</v>
+      </c>
+      <c r="Q167">
+        <v>6.3</v>
+      </c>
+      <c r="R167">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>549</v>
+      </c>
+      <c r="B168">
+        <v>85</v>
+      </c>
+      <c r="C168" t="s">
+        <v>419</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G168" t="s">
+        <v>146</v>
+      </c>
+      <c r="H168" t="s">
+        <v>146</v>
+      </c>
+      <c r="I168" s="1"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="6">
+        <v>52</v>
+      </c>
+      <c r="M168" t="s">
+        <v>550</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168">
+        <v>30</v>
+      </c>
+      <c r="P168">
+        <v>6.3</v>
+      </c>
+      <c r="Q168">
+        <v>6.2</v>
+      </c>
+      <c r="R168">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>551</v>
+      </c>
+      <c r="B169">
+        <v>86</v>
+      </c>
+      <c r="C169" t="s">
+        <v>419</v>
+      </c>
+      <c r="F169" t="s">
+        <v>553</v>
+      </c>
+      <c r="G169" t="s">
+        <v>146</v>
+      </c>
+      <c r="H169" t="s">
+        <v>146</v>
+      </c>
+      <c r="I169" s="1">
+        <v>45633</v>
+      </c>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="6">
+        <v>52</v>
+      </c>
+      <c r="M169" t="s">
+        <v>54</v>
+      </c>
+      <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>552</v>
+      </c>
+      <c r="B170">
+        <v>87</v>
+      </c>
+      <c r="C170" t="s">
+        <v>419</v>
+      </c>
+      <c r="F170" t="s">
+        <v>553</v>
+      </c>
+      <c r="G170" t="s">
+        <v>146</v>
+      </c>
+      <c r="H170" t="s">
+        <v>146</v>
+      </c>
+      <c r="I170" s="1">
+        <v>45633</v>
+      </c>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="6">
+        <v>52</v>
+      </c>
+      <c r="M170" t="s">
+        <v>54</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>1</v>
+      </c>
+      <c r="Q170">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
